--- a/annotated_dial_excerpts.xlsx
+++ b/annotated_dial_excerpts.xlsx
@@ -1936,7 +1936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1963,22 +1963,17 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -2000,12 +1995,7 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
@@ -2061,7 +2051,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2119,7 +2109,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2131,19 +2121,19 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -2156,46 +2146,43 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5684,7 +5671,7 @@
       <c r="E216" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="F216" s="40" t="s">
+      <c r="F216" s="16" t="s">
         <v>215</v>
       </c>
       <c r="G216" s="36"/>
@@ -5698,10 +5685,10 @@
       <c r="D217" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E217" s="41" t="s">
+      <c r="E217" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F217" s="40" t="s">
+      <c r="F217" s="16" t="s">
         <v>217</v>
       </c>
       <c r="G217" s="36"/>
@@ -5715,10 +5702,10 @@
       <c r="D218" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E218" s="41" t="s">
+      <c r="E218" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="F218" s="40" t="s">
+      <c r="F218" s="16" t="s">
         <v>219</v>
       </c>
       <c r="G218" s="36"/>
@@ -5732,10 +5719,10 @@
       <c r="D219" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E219" s="41" t="s">
+      <c r="E219" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="F219" s="40" t="s">
+      <c r="F219" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G219" s="36"/>
@@ -5749,10 +5736,10 @@
       <c r="D220" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E220" s="41" t="s">
+      <c r="E220" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="F220" s="40" t="s">
+      <c r="F220" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G220" s="36"/>
@@ -5766,10 +5753,10 @@
       <c r="D221" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E221" s="41" t="s">
+      <c r="E221" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="F221" s="40" t="s">
+      <c r="F221" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G221" s="36"/>
@@ -5783,10 +5770,10 @@
       <c r="D222" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E222" s="41" t="s">
+      <c r="E222" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="F222" s="40" t="s">
+      <c r="F222" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G222" s="36"/>
@@ -5800,10 +5787,10 @@
       <c r="D223" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E223" s="41" t="s">
+      <c r="E223" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F223" s="40" t="s">
+      <c r="F223" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G223" s="36"/>
@@ -5845,7 +5832,7 @@
       <c r="F226" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G226" s="42"/>
+      <c r="G226" s="41"/>
     </row>
     <row r="227">
       <c r="A227" s="6"/>
@@ -5862,7 +5849,7 @@
       <c r="F227" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G227" s="42"/>
+      <c r="G227" s="41"/>
     </row>
     <row r="228">
       <c r="A228" s="6"/>
@@ -5879,7 +5866,7 @@
       <c r="F228" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G228" s="43"/>
+      <c r="G228" s="42"/>
     </row>
     <row r="229">
       <c r="A229" s="6"/>
@@ -6300,7 +6287,7 @@
       <c r="E256" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F256" s="44" t="s">
+      <c r="F256" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G256" s="36"/>
@@ -6522,7 +6509,7 @@
       <c r="F271" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G271" s="45"/>
+      <c r="G271" s="44"/>
     </row>
     <row r="272">
       <c r="A272" s="6"/>
@@ -6600,30 +6587,30 @@
       <c r="B277" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C277" s="46">
+      <c r="C277" s="45">
         <v>259.0</v>
       </c>
-      <c r="D277" s="47" t="s">
+      <c r="D277" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E277" s="48" t="s">
+      <c r="E277" s="47" t="s">
         <v>267</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G277" s="45"/>
+      <c r="G277" s="44"/>
     </row>
     <row r="278">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="46">
+      <c r="C278" s="45">
         <v>260.0</v>
       </c>
-      <c r="D278" s="47" t="s">
+      <c r="D278" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E278" s="48" t="s">
+      <c r="E278" s="47" t="s">
         <v>268</v>
       </c>
       <c r="F278" s="6" t="s">
@@ -6634,13 +6621,13 @@
     <row r="279">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="46">
+      <c r="C279" s="45">
         <v>261.0</v>
       </c>
-      <c r="D279" s="47" t="s">
+      <c r="D279" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E279" s="48" t="s">
+      <c r="E279" s="47" t="s">
         <v>269</v>
       </c>
       <c r="F279" s="6" t="s">
@@ -6651,18 +6638,18 @@
     <row r="280">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
-      <c r="C280" s="49"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
+      <c r="C280" s="48"/>
+      <c r="D280" s="49"/>
+      <c r="E280" s="49"/>
       <c r="F280" s="11"/>
       <c r="G280" s="9"/>
     </row>
     <row r="281">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
-      <c r="C281" s="49"/>
-      <c r="D281" s="50"/>
-      <c r="E281" s="50"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="49"/>
+      <c r="E281" s="49"/>
       <c r="F281" s="11"/>
       <c r="G281" s="9"/>
     </row>
